--- a/data/trans_dic/P28B_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P28B_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha alimentado peor respecto al último mes</t>
+          <t>Población que se ha alimentado peor respecto al último mes (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>8,27%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,31; 22,61</t>
+          <t>9,56; 20,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 12,55</t>
+          <t>4,62; 13,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 8,89</t>
+          <t>2,33; 9,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 10,66</t>
+          <t>3,69; 14,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,75; 26,73</t>
+          <t>20,73; 33,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 11,43</t>
+          <t>5,33; 12,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,17; 12,25</t>
+          <t>7,13; 15,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 11,04</t>
+          <t>5,42; 13,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,48; 23,02</t>
+          <t>17,12; 25,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,62; 10,85</t>
+          <t>5,81; 11,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,58</t>
+          <t>5,73; 11,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 9,67</t>
+          <t>5,59; 11,83</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>6,91%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>8,0%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>9,27%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>5,97%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,63; 22,08</t>
+          <t>7,6; 18,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 11,67</t>
+          <t>0,9; 7,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 10,88</t>
+          <t>2,1; 11,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 7,63</t>
+          <t>0,88; 10,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,91; 25,73</t>
+          <t>15,89; 29,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,47; 16,65</t>
+          <t>4,77; 14,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 12,1</t>
+          <t>3,66; 12,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,83; 15,34</t>
+          <t>4,02; 14,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,28; 22,25</t>
+          <t>13,59; 22,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 12,45</t>
+          <t>3,93; 9,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 10,13</t>
+          <t>3,3; 9,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 10,48</t>
+          <t>3,56; 10,17</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>1,24%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 20,51</t>
+          <t>0,0; 19,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 13,25</t>
+          <t>0,0; 20,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,38</t>
+          <t>0,0; 12,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,08; 26,47</t>
+          <t>7,8; 35,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 23,46</t>
+          <t>6,17; 32,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 22,57</t>
+          <t>8,86; 36,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 11,71</t>
+          <t>0,0; 11,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 20,75</t>
+          <t>4,72; 21,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 15,47</t>
+          <t>4,67; 23,23</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 12,84</t>
+          <t>5,25; 21,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,84</t>
+          <t>0,0; 5,63</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,46; 19,27</t>
+          <t>9,0; 16,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,96</t>
+          <t>3,81; 9,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,21</t>
+          <t>2,73; 7,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,25</t>
+          <t>2,88; 9,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,86; 24,55</t>
+          <t>20,37; 28,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 12,81</t>
+          <t>6,79; 12,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,4</t>
+          <t>7,37; 13,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,04; 10,9</t>
+          <t>5,48; 11,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,01; 20,65</t>
+          <t>16,03; 21,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,53</t>
+          <t>5,84; 10,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,85; 8,89</t>
+          <t>5,73; 9,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,38</t>
+          <t>4,82; 8,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1216,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha alimentado peor respecto al último mes (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>53780</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>36610</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18498</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>29040</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>115802</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>42230</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>46164</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36151</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>169582</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>78840</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>64662</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>65190</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>34979; 76657</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19878; 57801</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8523; 35722</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14066; 54483</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>90260; 146048</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27096; 64000</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>29888; 65037</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22096; 53580</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>137178; 203376</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>54525; 106657</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>45019; 88985</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>44038; 93259</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>38573</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11917</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16525</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12475</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>76985</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>37296</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23399</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26803</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>115558</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>49214</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>39925</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>39278</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23145; 57854</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3246; 28067</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6685; 36326</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2847; 34495</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>55640; 102129</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20309; 62585</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12393; 42220</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13471; 48242</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>88978; 149144</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>30826; 77829</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21692; 60804</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23422; 66871</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3417</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5719</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1944</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15685</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16705</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16200</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2078</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>19102</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22424</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18144</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2078</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16865</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20633</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9595</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6445; 28934</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6245; 33281</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7069; 28811</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9172</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7906; 35919</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9487; 47139</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8371; 33461</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9472</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>95770</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>54246</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>36968</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>41515</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>208472</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>96232</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>85763</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>65031</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>304242</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>150478</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>122731</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>106546</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>67958; 126815</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>33956; 84569</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>20868; 58827</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>22752; 71526</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>176807; 250364</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>70272; 129151</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>61682; 113497</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>45199; 93872</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>260243; 356771</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>112581; 194413</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>91803; 158580</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>77776; 141276</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>